--- a/data/spring_2024_2.xlsx
+++ b/data/spring_2024_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\publicworks\TREE FOLDER\Residential Tree Planting Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmedina\Documents\Projects\Colle_Park_Residential_Tree_Planting_PRogram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDB13B4-DB8A-49B2-8168-DAF5EC36266B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD55B9E-E757-4264-96FE-69D3F4DF5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6C71B00-E0E1-4FCA-BCCD-194D4A4707A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6C71B00-E0E1-4FCA-BCCD-194D4A4707A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Application Date; Planting on Residential Property</t>
   </si>
@@ -44,15 +44,6 @@
     <t>City District</t>
   </si>
   <si>
-    <t>First and Last Name:</t>
-  </si>
-  <si>
-    <t>Email Address:</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>Address:</t>
   </si>
   <si>
@@ -74,27 +65,9 @@
     <t>Casey Tree Planting on Private Property SPRING 2024 (MAY)</t>
   </si>
   <si>
-    <t>Jeff Miller</t>
-  </si>
-  <si>
-    <t>jeffmillerworld@gmail.com</t>
-  </si>
-  <si>
-    <t>443-764-6083</t>
-  </si>
-  <si>
     <t>9609 50th Place</t>
   </si>
   <si>
-    <t>Chao Zhang</t>
-  </si>
-  <si>
-    <t>chaoszhang8@gmail.com</t>
-  </si>
-  <si>
-    <t>240-441-9388</t>
-  </si>
-  <si>
     <t>9540 Rhode Island Ave</t>
   </si>
   <si>
@@ -107,85 +80,31 @@
     <t>X</t>
   </si>
   <si>
-    <t>John Nwaogbe</t>
-  </si>
-  <si>
-    <t>jnwaogbe@dccfh.org</t>
-  </si>
-  <si>
-    <t>202-375-3903</t>
-  </si>
-  <si>
     <t>4811 Ruatan St</t>
   </si>
   <si>
     <t>Swamp White Oak, Freemen Maple</t>
   </si>
   <si>
-    <t>Eric Giove</t>
-  </si>
-  <si>
-    <t>rickgiove@gmail.com</t>
-  </si>
-  <si>
-    <t>301-345-2829</t>
-  </si>
-  <si>
     <t>5121 Kennebunk Terr</t>
   </si>
   <si>
     <t>Freeman Maple</t>
   </si>
   <si>
-    <t>Reza Lubis</t>
-  </si>
-  <si>
-    <t>ralubis@gmail.com</t>
-  </si>
-  <si>
-    <t>301-442-0769</t>
-  </si>
-  <si>
     <t>7510 Wellesley Dr</t>
   </si>
   <si>
     <t>Redbud, Persimmon</t>
   </si>
   <si>
-    <t>James Barnes</t>
-  </si>
-  <si>
-    <t>barnesjim@aol.com</t>
-  </si>
-  <si>
-    <t>301-927-6086</t>
-  </si>
-  <si>
     <t>4611 Drexel Rd</t>
   </si>
   <si>
-    <t>Magarsa Abdukarim</t>
-  </si>
-  <si>
-    <t>magarsaabdukarim@rocketmail.com</t>
-  </si>
-  <si>
-    <t>832-352-7633</t>
-  </si>
-  <si>
     <t>3739 Marlbrough Way</t>
   </si>
   <si>
     <t>(2) Am. Holly</t>
-  </si>
-  <si>
-    <t>James Slavin</t>
-  </si>
-  <si>
-    <t>generaljym@gmail.com</t>
-  </si>
-  <si>
-    <t>301-461-3100</t>
   </si>
   <si>
     <t>7321 Radcliffe Dr</t>
@@ -256,16 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -606,43 +522,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,17 +577,8 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45350</v>
       </c>
@@ -685,34 +586,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45350</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45392</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45405</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45350</v>
-      </c>
-      <c r="H3" s="3">
-        <v>45392</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45405</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45302</v>
       </c>
@@ -720,34 +612,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
         <v>45344</v>
       </c>
-      <c r="H4" s="3">
+      <c r="E4" s="3">
         <v>45392</v>
       </c>
-      <c r="I4" s="3">
+      <c r="F4" s="3">
         <v>45405</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45301</v>
       </c>
@@ -755,34 +638,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
         <v>45322</v>
       </c>
-      <c r="H5" s="3">
+      <c r="E5" s="3">
         <v>45392</v>
       </c>
-      <c r="I5" s="3">
+      <c r="F5" s="3">
         <v>45405</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45306</v>
       </c>
@@ -790,34 +664,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="H6" s="3">
+      <c r="E6" s="3">
         <v>45392</v>
       </c>
-      <c r="I6" s="3">
+      <c r="F6" s="3">
         <v>45405</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45313</v>
       </c>
@@ -825,34 +690,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
         <v>45322</v>
       </c>
-      <c r="H7" s="3">
+      <c r="E7" s="3">
         <v>45392</v>
       </c>
-      <c r="I7" s="3">
+      <c r="F7" s="3">
         <v>45398</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45314</v>
       </c>
@@ -860,34 +716,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
         <v>45320</v>
       </c>
-      <c r="H8" s="3">
+      <c r="E8" s="3">
         <v>45392</v>
       </c>
-      <c r="I8" s="3">
+      <c r="F8" s="3">
         <v>45398</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45282</v>
       </c>
@@ -895,34 +742,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
         <v>45336</v>
       </c>
-      <c r="H9" s="3">
+      <c r="E9" s="3">
         <v>45392</v>
       </c>
-      <c r="I9" s="3">
+      <c r="F9" s="3">
         <v>45406</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45293</v>
       </c>
@@ -930,54 +768,42 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
         <v>45324</v>
       </c>
-      <c r="H10" s="3">
+      <c r="E10" s="3">
         <v>45392</v>
       </c>
-      <c r="I10" s="3">
+      <c r="F10" s="3">
         <v>45401</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition ref="B3:B11"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
